--- a/data/trans_camb/P25A_8_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_8_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,94</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 0,0</t>
+          <t>-16,48; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 0,0</t>
+          <t>-16,48; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 9,94</t>
+          <t>-6,1; 18,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 6,39</t>
+          <t>-0,93; 15,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 3,26</t>
+          <t>-4,46; 7,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 1,42</t>
+          <t>-0,12; 18,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 6,58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 2,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 13,93</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>126,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>279,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,0%</t>
+          <t>372,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-33,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>229,06%</t>
         </is>
       </c>
     </row>
@@ -730,17 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 662,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,91; 278,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 117,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-67,9; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>1,2</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 6,23</t>
+          <t>-9,14; 11,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 9,93</t>
+          <t>-8,08; 16,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 5,58</t>
+          <t>-5,95; 22,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 9,82</t>
+          <t>-4,63; 11,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 4,13</t>
+          <t>-3,06; 14,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,61</t>
+          <t>0,26; 20,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 7,68</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 12,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 16,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,81%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>81,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>176,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>304,58%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>91,32%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>157,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,69; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-82,6; 184,26</t>
+          <t>-69,43; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,34; 307,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 153,14</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 255,14</t>
+          <t>-52,44; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-70,84; 481,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-48,65; 666,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 940,88</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,43</t>
+          <t>-7,21; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,49</t>
+          <t>-7,58; 4,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 7,06</t>
+          <t>-1,62; 16,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 10,35</t>
+          <t>-3,84; 7,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,75</t>
+          <t>-1,0; 13,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,73</t>
+          <t>-1,13; 11,83</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 4,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 8,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 10,81</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-33,81%</t>
+          <t>-41,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>-22,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>195,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>135,68%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>133,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>112,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>73,08%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>145,19%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,46; 567,94</t>
+          <t>-60,68; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 798,69</t>
+          <t>-74,31; 684,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 172,66</t>
+          <t>-42,63; 961,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 289,45</t>
+          <t>-35,27; 855,63</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-74,99; 282,43</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-45,68; 489,76</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 576,13</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,08</t>
+          <t>1,16; 13,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 10,84</t>
+          <t>1,14; 13,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,87</t>
+          <t>0,03; 12,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 1,33</t>
+          <t>-9,18; 3,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,24</t>
+          <t>-9,89; 2,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,95</t>
+          <t>-6,15; 8,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 6,38</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 6,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 7,6</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>258,14%</t>
+          <t>542,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>336,17%</t>
+          <t>515,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-43,68%</t>
+          <t>423,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-47,41%</t>
+          <t>-33,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-46,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42,35%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>64,57%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,16; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,25; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,92; 42,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-83,71; 47,93</t>
+          <t>-84,86; 102,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 119,44</t>
+          <t>-89,76; 104,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 137,72</t>
+          <t>-67,3; 230,47</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-44,92; 293,97</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-51,95; 247,94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; 348,49</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,07</t>
+          <t>-7,78; 2,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 17,88</t>
+          <t>-1,71; 24,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,62</t>
+          <t>-6,22; 5,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 9,27</t>
+          <t>-9,07; 8,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,61</t>
+          <t>-3,91; 16,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 10,52</t>
+          <t>-4,07; 16,95</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 3,07</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 18,56</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 8,05</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>-54,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>281,72%</t>
+          <t>217,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>105,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>120,85%</t>
+          <t>102,47%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-24,01%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>154,14%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>64,5%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,08; 330,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 520,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-67,08; 250,99</t>
+          <t>-62,95; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 734,09</t>
+          <t>-64,76; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 215,07</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,07; 935,74</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-56,55; 476,79</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>9,34</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,95</t>
+          <t>-10,17; 5,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 11,27</t>
+          <t>-15,92; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 1,96</t>
+          <t>-12,62; 3,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 18,27</t>
+          <t>-7,16; 3,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,06</t>
+          <t>-4,81; 8,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 12,45</t>
+          <t>-0,5; 21,7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 3,28</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 3,9</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 12,38</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>115,63%</t>
+          <t>-19,85%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>244,15%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-47,42%</t>
+          <t>-36,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>-24,47%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>134,01%</t>
+          <t>397,52%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-21,77%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-38,87%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>177,08%</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-83,32; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-89,18; 603,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 1110,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-62,81; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,9</t>
+          <t>-2,93; 2,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,98</t>
+          <t>-1,47; 5,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,99</t>
+          <t>-0,0; 7,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,34</t>
+          <t>-1,57; 3,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,51</t>
+          <t>-0,7; 5,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,24</t>
+          <t>2,11; 9,49</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 2,83</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 4,64</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 7,75</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>54,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>113,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>56,4%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>140,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>54,96%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>127,33%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 120,71</t>
+          <t>-59,38; 149,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 231,36</t>
+          <t>-39,86; 264,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 51,02</t>
+          <t>-6,37; 371,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 107,59</t>
+          <t>-31,84; 145,84</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 46,98</t>
+          <t>-15,55; 181,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 102,97</t>
+          <t>35,77; 324,76</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-28,29; 102,43</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 161,49</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>44,95; 268,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
